--- a/Document/Excel/Workload.xlsx
+++ b/Document/Excel/Workload.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Johnabbott\Foundations of Web Development\Final\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F6325-2D98-43AF-8F06-DA99DB030FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{C75F6325-2D98-43AF-8F06-DA99DB030FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A53FF2A-90FC-4612-81E6-A465DAFA6F82}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{2698E3B9-EB8D-4273-AA68-BC3B08924BD1}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="1" activeTab="4" xr2:uid="{2698E3B9-EB8D-4273-AA68-BC3B08924BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Website" sheetId="1" r:id="rId1"/>
     <sheet name="Excel" sheetId="2" r:id="rId2"/>
-    <sheet name="Visio" sheetId="3" r:id="rId3"/>
+    <sheet name="Visio-Word" sheetId="3" r:id="rId3"/>
     <sheet name="PowerPoint" sheetId="5" r:id="rId4"/>
     <sheet name="Total" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="50">
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time From</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time To</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done-did List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Working Hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jingyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project planning and discussion</t>
+  </si>
   <si>
     <t>Amirhossein</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,110 +93,15 @@
   </si>
   <si>
     <t>Jingyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done-did List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time To</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time From</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Working Hours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project planning and discussion</t>
-  </si>
-  <si>
-    <t>Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Website</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Working Hours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select a cell and insert table row above</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fill down each cell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter the 24-hour time.(ex:15:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Working Hour cell, Changing the Format cells from General to Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work time per item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Making Workload excel file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add doughnut chart and data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Jingyu</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
     <t>Build contact page</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
   <si>
     <t>Fix contact page style</t>
@@ -190,14 +130,101 @@
   <si>
     <t>Build work experience page</t>
   </si>
+  <si>
+    <t>Fix contact page and modify style</t>
+  </si>
+  <si>
+    <t>Fix skills page</t>
+  </si>
+  <si>
+    <t>Fix education page</t>
+  </si>
+  <si>
+    <t>Fix intex page and modify all style</t>
+  </si>
+  <si>
+    <t>Modify all page</t>
+  </si>
+  <si>
+    <t>Total Working Hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select a cell and insert table row above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill down each cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter the 24-hour time.(ex:15:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Working Hour cell, Changing the Format cells from General to Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Making Workload excel file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add doughnut chart and data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify the Excel to add the work on the Word.</t>
+  </si>
+  <si>
+    <t>Making Visio file</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>working on visio</t>
+  </si>
+  <si>
+    <t>Website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work time per item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -271,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,13 +311,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -302,9 +329,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,6 +339,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -336,7 +369,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -353,6 +386,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -369,7 +403,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -386,7 +420,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -403,41 +437,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -569,7 +569,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -667,7 +667,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -684,7 +684,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -831,7 +831,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -929,7 +929,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -946,7 +946,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1093,7 +1093,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1191,7 +1191,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1208,7 +1208,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1355,7 +1355,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1420,7 +1420,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1437,7 +1437,40 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1587,7 +1620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1653,7 +1686,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1727,19 +1760,19 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.24999999999999989</c:v>
+                  <c:v>0.52083333333333315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666663</c:v>
+                  <c:v>0.27083333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666696</c:v>
+                  <c:v>0.27083333333333393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16666666666666696</c:v>
+                  <c:v>0.31250000000000056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666696</c:v>
+                  <c:v>0.14583333333333365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,7 +1836,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1889,7 +1922,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666685E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,7 +1986,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2033,13 +2066,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666741E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.083333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.14583333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,7 +2136,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2189,7 +2222,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666741E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,7 +2286,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2327,19 +2360,19 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39583333333333326</c:v>
+                  <c:v>0.66666666666666652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666663</c:v>
+                  <c:v>0.27083333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666696</c:v>
+                  <c:v>0.31250000000000067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16666666666666696</c:v>
+                  <c:v>0.33333333333333393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666696</c:v>
+                  <c:v>0.37500000000000044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,7 +2437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1595609808"/>
@@ -2475,7 +2508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1595597744"/>
@@ -2522,7 +2555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2575,7 +2608,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2626,7 +2659,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2843,7 +2876,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2898,16 +2931,16 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.91666666666666741</c:v>
+                  <c:v>1.5208333333333346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14583333333333337</c:v>
+                  <c:v>0.18750000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.20833333333333348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666741E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,7 +3127,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="ko-KR"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -3161,7 +3194,7 @@
                       <c:formatCode>h:mm;@</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0.24999999999999989</c:v>
+                        <c:v>0.52083333333333315</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.14583333333333337</c:v>
@@ -3346,7 +3379,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="ko-KR"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -3413,7 +3446,7 @@
                       <c:formatCode>h:mm;@</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0.16666666666666663</c:v>
+                        <c:v>0.27083333333333326</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0</c:v>
@@ -3598,7 +3631,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="ko-KR"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -3665,13 +3698,13 @@
                       <c:formatCode>h:mm;@</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0.16666666666666696</c:v>
+                        <c:v>0.27083333333333393</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>4.1666666666666741E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -3850,7 +3883,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="ko-KR"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -3917,13 +3950,13 @@
                       <c:formatCode>h:mm;@</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0.16666666666666696</c:v>
+                        <c:v>0.31250000000000056</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>2.083333333333337E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
@@ -4102,7 +4135,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="ko-KR"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -4169,16 +4202,16 @@
                       <c:formatCode>h:mm;@</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0.16666666666666696</c:v>
+                        <c:v>0.14583333333333365</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>4.1666666666666685E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>0.14583333333333337</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>4.1666666666666741E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4233,7 +4266,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4286,7 +4319,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5553,15 +5586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1181099</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5590,14 +5623,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5605,6 +5638,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164A8B3D-729F-4C0D-8576-7EB62F69F346}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BCCF9685-2F56-494C-B15A-AD21724F168C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5626,14 +5662,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{94DFBBB0-15C0-437F-A43C-A6D30E724103}" name="Table36" displayName="Table36" ref="B4:G15" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{94DFBBB0-15C0-437F-A43C-A6D30E724103}" name="Table36" displayName="Table36" ref="B4:G21" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4FF63DDC-38DC-4950-9FFA-C658A2242C1E}" name="Name" dataDxfId="69"/>
     <tableColumn id="2" xr3:uid="{5565C589-08D0-48C5-8EBB-4A29ED28B891}" name="Day" dataDxfId="68"/>
     <tableColumn id="3" xr3:uid="{9BFB82D3-37B3-4483-8A50-CC21067A7300}" name="Time From" dataDxfId="67"/>
     <tableColumn id="6" xr3:uid="{63CB6D46-3CD7-48D7-83DD-9643995D4B29}" name="Time To" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{B44ED379-7346-422E-9710-B5C12E228807}" name="Done-did List" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{6133B534-68EE-4330-94BC-400587B929F7}" name="Working Hours" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{B44ED379-7346-422E-9710-B5C12E228807}" name="Done-did List" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{6133B534-68EE-4330-94BC-400587B929F7}" name="Working Hours" dataDxfId="64">
       <calculatedColumnFormula>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5642,14 +5678,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FFAC9EA3-3D64-4821-8E50-EC4DFA6538D7}" name="Table38" displayName="Table38" ref="B4:G9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FFAC9EA3-3D64-4821-8E50-EC4DFA6538D7}" name="Table38" displayName="Table38" ref="B4:G9" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D89757DB-5109-49B1-8BC3-0800BBA5BF50}" name="Name" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{CE89F506-2510-47D5-BC85-21EE31514603}" name="Day" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{83F32809-E1B9-4844-9824-11EFA1CD45B9}" name="Time From" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{BC15FCC6-9CF7-49A9-9E4C-EED06C9ADF04}" name="Time To" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{4EEB6D36-E0A9-449E-B6E3-3DE9B10FC817}" name="Done-did List" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{ADA2FA8E-DF0D-4E38-A375-7F6203140943}" name="Working Hours" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{D89757DB-5109-49B1-8BC3-0800BBA5BF50}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{CE89F506-2510-47D5-BC85-21EE31514603}" name="Day" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{83F32809-E1B9-4844-9824-11EFA1CD45B9}" name="Time From" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{BC15FCC6-9CF7-49A9-9E4C-EED06C9ADF04}" name="Time To" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{4EEB6D36-E0A9-449E-B6E3-3DE9B10FC817}" name="Done-did List" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{ADA2FA8E-DF0D-4E38-A375-7F6203140943}" name="Working Hours" dataDxfId="16">
       <calculatedColumnFormula>Table38[[#This Row],[Time To]]-Table38[[#This Row],[Time From]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5658,10 +5694,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9B44AD29-486E-4872-B193-BD6554D4A56F}" name="Table91113" displayName="Table91113" ref="B14:C19" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9B44AD29-486E-4872-B193-BD6554D4A56F}" name="Table91113" displayName="Table91113" ref="B14:C19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ED41A83B-795C-44D0-AC8B-4443A2613C54}" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E83CE485-2720-4165-A001-04865B93C396}" name="Total Working Hours" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{ED41A83B-795C-44D0-AC8B-4443A2613C54}" name="Name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E83CE485-2720-4165-A001-04865B93C396}" name="Total Working Hours" dataDxfId="12">
       <calculatedColumnFormula>SUMIF(Table38[Name],Table91113[[#This Row],[Name]],Table38[Working Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5670,32 +5706,32 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8BD83CE2-0B11-48C5-881B-BD62B714CD2F}" name="Table1418" displayName="Table1418" ref="E14:F18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8BD83CE2-0B11-48C5-881B-BD62B714CD2F}" name="Table1418" displayName="Table1418" ref="E14:F18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A27ED87C-405D-4BFA-98E2-762E493B761C}" name=" " dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{5869B490-53FF-4DDF-9F51-B5F0E3079872}" name="Guide" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A27ED87C-405D-4BFA-98E2-762E493B761C}" name=" " dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5869B490-53FF-4DDF-9F51-B5F0E3079872}" name="Guide" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{78B6927A-BEE8-460A-B1B9-0F467B3130C9}" name="Table8" displayName="Table8" ref="B4:G10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{78B6927A-BEE8-460A-B1B9-0F467B3130C9}" name="Table8" displayName="Table8" ref="B4:G10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{17BA44CF-2B52-4B6A-B8E2-5B5FE75F1E5B}" name="Name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C3A5014F-337C-43B5-852E-39A6A1E1D67C}" name="Website" dataDxfId="6">
-      <calculatedColumnFormula>Website!C20</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{17BA44CF-2B52-4B6A-B8E2-5B5FE75F1E5B}" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C3A5014F-337C-43B5-852E-39A6A1E1D67C}" name="Website" dataDxfId="4">
+      <calculatedColumnFormula>Website!C25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0A80EB1D-ED24-4AA0-A583-18C1BF4FAB3D}" name="Excel" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{0A80EB1D-ED24-4AA0-A583-18C1BF4FAB3D}" name="Excel" dataDxfId="3">
       <calculatedColumnFormula>Excel!C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7CD4809C-28AB-40C1-BB8C-A1394526B695}" name="Visio" dataDxfId="4">
-      <calculatedColumnFormula>Visio!C15</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{7CD4809C-28AB-40C1-BB8C-A1394526B695}" name="Visio" dataDxfId="2">
+      <calculatedColumnFormula>'Visio-Word'!C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{38BF2D6F-33ED-46B0-828F-DA80B7E1D28B}" name="PowerPoint" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{38BF2D6F-33ED-46B0-828F-DA80B7E1D28B}" name="PowerPoint" dataDxfId="1">
       <calculatedColumnFormula>PowerPoint!C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{99A324B2-3C05-489A-A345-D49881AD2F99}" name="Total" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{99A324B2-3C05-489A-A345-D49881AD2F99}" name="Total" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table8[[#This Row],[Website]:[PowerPoint]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5704,10 +5740,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8071136B-A854-4EB4-818C-08848CEFA9FC}" name="Table9" displayName="Table9" ref="B19:C24" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8071136B-A854-4EB4-818C-08848CEFA9FC}" name="Table9" displayName="Table9" ref="B24:C29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E085770F-4597-479D-A2CA-4E8593451943}" name="Name" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{A5D804C1-8994-4DD8-957F-581EC9883821}" name="Total Working Hours" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{E085770F-4597-479D-A2CA-4E8593451943}" name="Name" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{A5D804C1-8994-4DD8-957F-581EC9883821}" name="Total Working Hours" dataDxfId="60">
       <calculatedColumnFormula>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5716,24 +5752,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{26619976-3F59-4A60-9910-6843595D42A9}" name="Table14" displayName="Table14" ref="E19:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{26619976-3F59-4A60-9910-6843595D42A9}" name="Table14" displayName="Table14" ref="E24:F28" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8B55B91E-0844-4026-8438-BAF85C2D8C8D}" name=" " dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{0038FC7D-BE89-45CB-9CAB-8B1449BE209B}" name="Guide" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{8B55B91E-0844-4026-8438-BAF85C2D8C8D}" name=" " dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{0038FC7D-BE89-45CB-9CAB-8B1449BE209B}" name="Guide" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABA926FC-8A31-4A31-826E-AFCD13480640}" name="Table3" displayName="Table3" ref="B4:G10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABA926FC-8A31-4A31-826E-AFCD13480640}" name="Table3" displayName="Table3" ref="B4:G10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F16044F3-86A6-4DF4-9033-3F17817DCC4B}" name="Name" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{2C678640-BBE2-4D42-97DB-0A83780A7968}" name="Day" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{8D3C830D-4AE8-4B11-86EC-87BBF7DCD404}" name="Time From" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{8011A58A-C10B-41DE-BABC-08BD451ADD4F}" name="Time To" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{7999F230-81A7-47D6-9010-A9F977DFCB2D}" name="Done-did List" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{41D126AC-373B-448B-81DC-D28AFEF1A477}" name="Working Hours" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{F16044F3-86A6-4DF4-9033-3F17817DCC4B}" name="Name" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{2C678640-BBE2-4D42-97DB-0A83780A7968}" name="Day" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{8D3C830D-4AE8-4B11-86EC-87BBF7DCD404}" name="Time From" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{8011A58A-C10B-41DE-BABC-08BD451ADD4F}" name="Time To" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{7999F230-81A7-47D6-9010-A9F977DFCB2D}" name="Done-did List" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{41D126AC-373B-448B-81DC-D28AFEF1A477}" name="Working Hours" dataDxfId="48">
       <calculatedColumnFormula>Table3[[#This Row],[Time To]]-Table3[[#This Row],[Time From]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5742,10 +5778,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7FB18222-9D84-495B-84DE-94DDFF23ACC0}" name="Table911" displayName="Table911" ref="B14:C19" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7FB18222-9D84-495B-84DE-94DDFF23ACC0}" name="Table911" displayName="Table911" ref="B14:C19" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{051C59E1-D23C-4E6D-B681-3CB45A1A7D03}" name="Name" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{289CB891-D263-466C-A19B-2800F991BBF4}" name="Total Working Hours" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{051C59E1-D23C-4E6D-B681-3CB45A1A7D03}" name="Name" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{289CB891-D263-466C-A19B-2800F991BBF4}" name="Total Working Hours" dataDxfId="44">
       <calculatedColumnFormula>SUMIF(Table3[Name],Table911[[#This Row],[Name]],Table3[Working Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5754,24 +5790,24 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E1FE337D-CFB1-42F8-AB00-2D2DA65C6CAB}" name="Table1416" displayName="Table1416" ref="E14:F18" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E1FE337D-CFB1-42F8-AB00-2D2DA65C6CAB}" name="Table1416" displayName="Table1416" ref="E14:F18" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{003BF8E2-0A8F-4B26-A352-8771FE1C69A4}" name=" " dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{9F9E2F0C-FD31-4040-8A8D-88A7A9C99343}" name="Guide" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{003BF8E2-0A8F-4B26-A352-8771FE1C69A4}" name=" " dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{9F9E2F0C-FD31-4040-8A8D-88A7A9C99343}" name="Guide" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{83E4CEBB-D4D4-41D3-9A53-1ED11E9B627B}" name="Table37" displayName="Table37" ref="B4:G9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{83E4CEBB-D4D4-41D3-9A53-1ED11E9B627B}" name="Table37" displayName="Table37" ref="B4:G9" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FA76DB21-5CEB-4561-A50A-5270DE8B2D78}" name="Name" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{8592289F-94D5-4BFD-B47F-F4D40CFC9C93}" name="Day" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{ABA512C5-E96D-407D-B7B4-387F0ABE7521}" name="Time From" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{86DC1AEB-2799-4F83-8E62-D0969425995F}" name="Time To" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{30C2FAAD-AEA9-4DC8-9FCB-CA7050AC8440}" name="Done-did List" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{B8E7C65F-A466-4489-B401-18B1D7CCD2EC}" name="Working Hours" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{FA76DB21-5CEB-4561-A50A-5270DE8B2D78}" name="Name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{8592289F-94D5-4BFD-B47F-F4D40CFC9C93}" name="Day" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{ABA512C5-E96D-407D-B7B4-387F0ABE7521}" name="Time From" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{86DC1AEB-2799-4F83-8E62-D0969425995F}" name="Time To" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{30C2FAAD-AEA9-4DC8-9FCB-CA7050AC8440}" name="Done-did List" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{B8E7C65F-A466-4489-B401-18B1D7CCD2EC}" name="Working Hours" dataDxfId="32">
       <calculatedColumnFormula>Table37[[#This Row],[Time To]]-Table37[[#This Row],[Time From]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5780,10 +5816,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E3694367-665E-4067-AC0A-D9AB10B21359}" name="Table91112" displayName="Table91112" ref="B14:C19" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E3694367-665E-4067-AC0A-D9AB10B21359}" name="Table91112" displayName="Table91112" ref="B14:C19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{474DB110-6033-4EB0-BF83-8C782E2A7D16}" name="Name" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{2DD88F13-354A-4EB5-8D44-6082B315C71A}" name="Total Working Hours" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{474DB110-6033-4EB0-BF83-8C782E2A7D16}" name="Name" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{2DD88F13-354A-4EB5-8D44-6082B315C71A}" name="Total Working Hours" dataDxfId="28">
       <calculatedColumnFormula>SUMIF(Table37[Name],Table91112[[#This Row],[Name]],Table37[Working Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5792,10 +5828,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7A64A400-8DBC-48CD-BEC8-F5B915DFD794}" name="Table1417" displayName="Table1417" ref="E14:F18" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{7A64A400-8DBC-48CD-BEC8-F5B915DFD794}" name="Table1417" displayName="Table1417" ref="E14:F18" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{02F935DC-1E7C-43FE-B1B9-D12A7BDCAECF}" name=" " dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1E2C6714-7F71-4158-BA19-64F23FB20AC4}" name="Guide" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{02F935DC-1E7C-43FE-B1B9-D12A7BDCAECF}" name=" " dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{1E2C6714-7F71-4158-BA19-64F23FB20AC4}" name="Guide" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6098,10 +6134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFF32C0-C671-4E95-9E79-7690065E2BE6}">
-  <dimension ref="B3:G24"/>
+  <dimension ref="B3:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F25" sqref="F25:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6111,44 +6147,44 @@
     <col min="3" max="3" width="11.875" style="7" customWidth="1"/>
     <col min="4" max="5" width="13.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="35.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="7" customWidth="1"/>
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" ht="30">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6">
         <v>0.5625</v>
@@ -6157,7 +6193,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6166,10 +6202,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6">
         <v>0.5625</v>
@@ -6178,7 +6214,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6187,10 +6223,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6">
         <v>0.5625</v>
@@ -6199,7 +6235,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6208,10 +6244,10 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6">
         <v>0.5625</v>
@@ -6220,7 +6256,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6229,10 +6265,10 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6">
         <v>0.5625</v>
@@ -6241,7 +6277,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6249,20 +6285,20 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.97916666666666663</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6270,20 +6306,20 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
         <v>0.375</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0.5</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>32</v>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6291,20 +6327,20 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
         <v>0.375</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>0.5</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>34</v>
+      <c r="F12" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6312,20 +6348,20 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13">
         <v>0.375</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>0.5</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>36</v>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="G13" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6333,20 +6369,20 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11">
         <v>0.375</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0.5</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>38</v>
+      <c r="F14" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G14" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
@@ -6354,116 +6390,241 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13">
         <v>0.375</v>
       </c>
-      <c r="E15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>40</v>
+      <c r="E15" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="G15" s="4">
         <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
-        <v>0.125</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="33.75" customHeight="1"/>
-    <row r="19" spans="2:6" ht="45">
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4">
+        <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="C17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>21</v>
+      <c r="G17" s="4">
+        <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
+        <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="3" t="s">
+    <row r="18" spans="2:7">
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="4">
+        <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
+        <v>0.10416666666666696</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4">
+        <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
+        <v>0.14583333333333359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4">
+        <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4">
+        <f>Table36[[#This Row],[Time To]]-Table36[[#This Row],[Time From]]</f>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="47.25">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
+        <v>0.52083333333333315</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
+        <v>0.27083333333333393</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="31.5">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
+        <v>0.31250000000000056</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="F28" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4">
         <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
-        <v>0.24999999999999989</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
-        <v>0.16666666666666696</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="30">
-      <c r="B23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
-        <v>0.16666666666666696</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4">
-        <f>SUMIF(Table36[Name],Table9[[#This Row],[Name]],Table36[Working Hours])</f>
-        <v>0.16666666666666696</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>0.14583333333333365</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6484,7 +6645,7 @@
   <dimension ref="B4:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6493,37 +6654,37 @@
     <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="7" customWidth="1"/>
     <col min="4" max="5" width="13.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="30">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6">
         <v>0.58333333333333337</v>
@@ -6532,7 +6693,7 @@
         <v>0.6875</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4">
         <f>Table3[[#This Row],[Time To]]-Table3[[#This Row],[Time From]]</f>
@@ -6541,10 +6702,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6">
         <v>0.85416666666666663</v>
@@ -6553,7 +6714,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4">
         <f>Table3[[#This Row],[Time To]]-Table3[[#This Row],[Time From]]</f>
@@ -6562,7 +6723,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
@@ -6575,7 +6736,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
@@ -6588,7 +6749,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
@@ -6601,15 +6762,23 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G10" s="4">
         <f>Table3[[#This Row],[Time To]]-Table3[[#This Row],[Time From]]</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -6621,21 +6790,21 @@
     </row>
     <row r="14" spans="2:7" ht="45">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4">
         <f>SUMIF(Table3[Name],Table911[[#This Row],[Name]],Table3[Working Hours])</f>
@@ -6645,12 +6814,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4">
         <f>SUMIF(Table3[Name],Table911[[#This Row],[Name]],Table3[Working Hours])</f>
@@ -6660,12 +6829,12 @@
         <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
         <f>SUMIF(Table3[Name],Table911[[#This Row],[Name]],Table3[Working Hours])</f>
@@ -6675,12 +6844,12 @@
         <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30">
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4">
         <f>SUMIF(Table3[Name],Table911[[#This Row],[Name]],Table3[Working Hours])</f>
@@ -6690,16 +6859,16 @@
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <f>SUMIF(Table3[Name],Table911[[#This Row],[Name]],Table3[Working Hours])</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6718,7 +6887,7 @@
   <dimension ref="B4:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6734,27 +6903,27 @@
   <sheetData>
     <row r="4" spans="2:11" ht="30">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
@@ -6767,7 +6936,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
@@ -6780,15 +6949,23 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="4">
         <f>Table37[[#This Row],[Time To]]-Table37[[#This Row],[Time From]]</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -6797,15 +6974,23 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G8" s="4">
         <f>Table37[[#This Row],[Time To]]-Table37[[#This Row],[Time From]]</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6814,15 +6999,23 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" s="4">
         <f>Table37[[#This Row],[Time To]]-Table37[[#This Row],[Time From]]</f>
-        <v>0</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -6855,21 +7048,21 @@
     </row>
     <row r="14" spans="2:11" ht="45">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4">
         <f>SUMIF(Table37[Name],Table91112[[#This Row],[Name]],Table37[Working Hours])</f>
@@ -6879,12 +7072,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4">
         <f>SUMIF(Table37[Name],Table91112[[#This Row],[Name]],Table37[Working Hours])</f>
@@ -6894,46 +7087,46 @@
         <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
         <f>SUMIF(Table37[Name],Table91112[[#This Row],[Name]],Table37[Working Hours])</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30">
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4">
         <f>SUMIF(Table37[Name],Table91112[[#This Row],[Name]],Table37[Working Hours])</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <f>SUMIF(Table37[Name],Table91112[[#This Row],[Name]],Table37[Working Hours])</f>
-        <v>0</v>
+        <v>0.14583333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -6952,7 +7145,7 @@
   <dimension ref="B4:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6968,27 +7161,27 @@
   <sheetData>
     <row r="4" spans="2:7" ht="30">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
@@ -7001,7 +7194,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
@@ -7014,7 +7207,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
@@ -7027,7 +7220,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
@@ -7040,34 +7233,40 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4">
         <f>Table38[[#This Row],[Time To]]-Table38[[#This Row],[Time From]]</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="45">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4">
         <f>SUMIF(Table38[Name],Table91113[[#This Row],[Name]],Table38[Working Hours])</f>
@@ -7077,12 +7276,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4">
         <f>SUMIF(Table38[Name],Table91113[[#This Row],[Name]],Table38[Working Hours])</f>
@@ -7092,12 +7291,12 @@
         <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
         <f>SUMIF(Table38[Name],Table91113[[#This Row],[Name]],Table38[Working Hours])</f>
@@ -7107,12 +7306,12 @@
         <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30">
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4">
         <f>SUMIF(Table38[Name],Table91113[[#This Row],[Name]],Table38[Working Hours])</f>
@@ -7122,16 +7321,16 @@
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <f>SUMIF(Table38[Name],Table91113[[#This Row],[Name]],Table38[Working Hours])</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7149,8 +7348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F370BB49-3BF7-4862-B0D6-7C4FADBC54D2}">
   <dimension ref="B4:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7163,38 +7362,38 @@
   <sheetData>
     <row r="4" spans="2:7" ht="30" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="22.5" customHeight="1">
+    <row r="5" spans="2:7" ht="30.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <f>Website!C20</f>
-        <v>0.24999999999999989</v>
+        <f>Website!C25</f>
+        <v>0.52083333333333315</v>
       </c>
       <c r="D5" s="4">
         <f>Excel!C15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="E5" s="4">
-        <f>Visio!C15</f>
+        <f>'Visio-Word'!C15</f>
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -7203,23 +7402,23 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(Table8[[#This Row],[Website]:[PowerPoint]])</f>
-        <v>0.39583333333333326</v>
+        <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="22.5" customHeight="1">
+    <row r="6" spans="2:7" ht="30.75" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
-        <f>Website!C21</f>
-        <v>0.16666666666666663</v>
+        <f>Website!C26</f>
+        <v>0.27083333333333326</v>
       </c>
       <c r="D6" s="4">
         <f>Excel!C16</f>
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f>Visio!C16</f>
+        <f>'Visio-Word'!C16</f>
         <v>0</v>
       </c>
       <c r="F6" s="4">
@@ -7228,24 +7427,24 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(Table8[[#This Row],[Website]:[PowerPoint]])</f>
-        <v>0.16666666666666663</v>
+        <v>0.27083333333333326</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="22.5" customHeight="1">
+    <row r="7" spans="2:7" ht="30.75" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
-        <f>Website!C22</f>
-        <v>0.16666666666666696</v>
+        <f>Website!C27</f>
+        <v>0.27083333333333393</v>
       </c>
       <c r="D7" s="4">
         <f>Excel!C17</f>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>Visio!C17</f>
-        <v>0</v>
+        <f>'Visio-Word'!C17</f>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="F7" s="4">
         <f>PowerPoint!C17</f>
@@ -7253,24 +7452,24 @@
       </c>
       <c r="G7" s="4">
         <f>SUM(Table8[[#This Row],[Website]:[PowerPoint]])</f>
-        <v>0.16666666666666696</v>
+        <v>0.31250000000000067</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="22.5" customHeight="1">
+    <row r="8" spans="2:7" ht="30.75" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
-        <f>Website!C23</f>
-        <v>0.16666666666666696</v>
+        <f>Website!C28</f>
+        <v>0.31250000000000056</v>
       </c>
       <c r="D8" s="4">
         <f>Excel!C18</f>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>Visio!C18</f>
-        <v>0</v>
+        <f>'Visio-Word'!C18</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F8" s="4">
         <f>PowerPoint!C18</f>
@@ -7278,53 +7477,53 @@
       </c>
       <c r="G8" s="4">
         <f>SUM(Table8[[#This Row],[Website]:[PowerPoint]])</f>
-        <v>0.16666666666666696</v>
+        <v>0.33333333333333393</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="22.5" customHeight="1">
+    <row r="9" spans="2:7" ht="30.75" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
-        <f>Website!C24</f>
-        <v>0.16666666666666696</v>
+        <f>Website!C29</f>
+        <v>0.14583333333333365</v>
       </c>
       <c r="D9" s="4">
         <f>Excel!C19</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="E9" s="4">
-        <f>Visio!C19</f>
-        <v>0</v>
+        <f>'Visio-Word'!C19</f>
+        <v>0.14583333333333337</v>
       </c>
       <c r="F9" s="4">
         <f>PowerPoint!C19</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G9" s="4">
         <f>SUM(Table8[[#This Row],[Website]:[PowerPoint]])</f>
-        <v>0.16666666666666696</v>
+        <v>0.37500000000000044</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30">
+    <row r="10" spans="2:7" ht="30.75" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C5:C9)</f>
-        <v>0.91666666666666741</v>
+        <v>1.5208333333333346</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ref="D10:F10" si="0">SUM(D5:D9)</f>
-        <v>0.14583333333333337</v>
+        <v>0.18750000000000006</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333348</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -7336,4 +7535,209 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007890FCD231D9394688352540BD555F0F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="451466f3a12d182e8881625d1d2dc77d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e3fd812-2ab5-4985-b2b3-5eebe32c7fb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a47df1f7e63f3324451988527b28262b" ns2:_="">
+    <xsd:import namespace="0e3fd812-2ab5-4985-b2b3-5eebe32c7fb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e3fd812-2ab5-4985-b2b3-5eebe32c7fb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CC9794-90A8-409A-9716-75026B5F0ED6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E15D3D77-361B-493D-964D-DE162056D79D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A704238-D7D7-42A0-A256-8D1423F41B35}"/>
 </file>